--- a/app/storage/packages/loan/Repayment Schedule Borey.xlsx
+++ b/app/storage/packages/loan/Repayment Schedule Borey.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t>កាលវិភាគសងប្រាក់</t>
   </si>
@@ -258,7 +258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -290,6 +290,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -299,25 +315,18 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -622,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -640,48 +649,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
     </row>
     <row r="3" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
     </row>
     <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
     </row>
     <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -689,72 +698,72 @@
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15" t="s">
+      <c r="E5" s="13"/>
+      <c r="F5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="15"/>
+      <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15" t="s">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15" t="s">
+      <c r="E6" s="13"/>
+      <c r="F6" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="15"/>
+      <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15" t="s">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15" t="s">
+      <c r="E7" s="13"/>
+      <c r="F7" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="15"/>
+      <c r="G7" s="13"/>
     </row>
     <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
       <c r="D8" s="14" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="14"/>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="15"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="17" t="s">
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
     </row>
     <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
@@ -827,64 +836,96 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="20" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="21"/>
+      <c r="B13" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="21">
+        <f>SUM(C11:C12)</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="22">
+        <f>SUM(D11:D12)</f>
+        <v>10000000</v>
+      </c>
+      <c r="E13" s="22">
+        <f>SUM(E11:E12)</f>
+        <v>2000</v>
+      </c>
+      <c r="F13" s="22">
+        <f>SUM(F11:F12)</f>
+        <v>10002000</v>
+      </c>
+      <c r="G13" s="22"/>
+    </row>
+    <row r="14" spans="1:7" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="19"/>
-    </row>
-    <row r="14" spans="1:7" s="20" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" spans="1:7" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="19"/>
-    </row>
-    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F16" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="5"/>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-      <c r="F17" s="6" t="s">
+    <row r="17" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="2"/>
+      <c r="F18" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="4" t="s">
+    <row r="19" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F19" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="s">
+    <row r="20" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A2:G2"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="A9:C9"/>
@@ -896,15 +937,6 @@
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:G9"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A2:G2"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0" bottom="0" header="0" footer="0"/>

--- a/app/storage/packages/loan/Repayment Schedule Borey.xlsx
+++ b/app/storage/packages/loan/Repayment Schedule Borey.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511" refMode="R1C1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -294,38 +294,38 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -634,7 +634,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="A14" sqref="A14:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -660,15 +660,15 @@
       <c r="G1" s="17"/>
     </row>
     <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
     </row>
     <row r="3" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -693,77 +693,77 @@
       <c r="G4" s="19"/>
     </row>
     <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="13" t="s">
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13" t="s">
+      <c r="E5" s="21"/>
+      <c r="F5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="13"/>
+      <c r="G5" s="21"/>
     </row>
     <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13" t="s">
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13" t="s">
+      <c r="E6" s="21"/>
+      <c r="F6" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="13"/>
+      <c r="G6" s="21"/>
     </row>
     <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13" t="s">
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13" t="s">
+      <c r="E7" s="21"/>
+      <c r="F7" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="13"/>
+      <c r="G7" s="21"/>
     </row>
     <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14" t="s">
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="13" t="s">
+      <c r="E8" s="20"/>
+      <c r="F8" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="13"/>
+      <c r="G8" s="21"/>
     </row>
     <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="15" t="s">
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
     </row>
     <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
@@ -837,27 +837,27 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
-      <c r="B13" s="23" t="s">
+      <c r="A13" s="13"/>
+      <c r="B13" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="13">
         <f>SUM(C11:C12)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="14">
         <f>SUM(D11:D12)</f>
         <v>10000000</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="14">
         <f>SUM(E11:E12)</f>
         <v>2000</v>
       </c>
-      <c r="F13" s="22">
-        <f>SUM(F11:F12)</f>
+      <c r="F13" s="14">
+        <f>D13+E13</f>
         <v>10002000</v>
       </c>
-      <c r="G13" s="22"/>
+      <c r="G13" s="14"/>
     </row>
     <row r="14" spans="1:7" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
@@ -917,6 +917,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:G9"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="A15:F15"/>
     <mergeCell ref="A1:G1"/>
@@ -933,10 +937,6 @@
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:G9"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0" bottom="0" header="0" footer="0"/>

--- a/app/storage/packages/loan/Repayment Schedule Borey.xlsx
+++ b/app/storage/packages/loan/Repayment Schedule Borey.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\wamp\www\housing_loan\app\storage\packages\loan\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="195" windowWidth="18195" windowHeight="11700"/>
+    <workbookView xWindow="480" yWindow="255" windowWidth="18195" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>កាលវិភាគសងប្រាក់</t>
   </si>
@@ -50,9 +45,6 @@
     <t>ហត្ថលេខាគណនេយ្យករ</t>
   </si>
   <si>
-    <t>ផល រិទ្ធា</t>
-  </si>
-  <si>
     <t>ក្រុមហ៊ុន</t>
   </si>
   <si>
@@ -107,16 +99,49 @@
     <t>សាខា, អាសយដ្ឋាន៖, ទូរស័ព្ទ៖</t>
   </si>
   <si>
-    <t>ស្នាមមេដៃស្តាំអ្នកបញ្ចាំ</t>
-  </si>
-  <si>
-    <t>*ក្រោយពីបានពិនិត្យកិច្ចសន្យាបញ្ចាំ NK02 ខ្ញុំបាទ/នាងខ្ញុំ យល់ព្រមសងប្រាក់ តាមពេលវេលាដែលបានកំណត់ក្នុងតារាងនេះ។</t>
-  </si>
-  <si>
-    <t>*ករណីសងត្រឡប់មានការយីតយ៉ាវ ខ្ញុំបាទ/នាងខ្ញុំ សុខចិត្តលក់ទ្រព្យសម្បត្តិ ដើម្បីសងមកក្រុមហ៊ុនគ្រប់ចំនួន។</t>
-  </si>
-  <si>
     <t>Company</t>
+  </si>
+  <si>
+    <t>ស្នាមមេដៃស្តាំអ្នកទិញ</t>
+  </si>
+  <si>
+    <t>* កំណត់សំគាល់</t>
+  </si>
+  <si>
+    <t xml:space="preserve">១ អតិថិជនត្រូវបង់ប្រាក់នៅការិយាល័យក្រុមហ៊ុន​ ងិន ឆប ,​  តាមធនាគារអេស៊ីលីដា,​ ធនាគារឥណ្ឌូឆៃណា​,​ រឺ Wing </t>
+  </si>
+  <si>
+    <t>២ លេខគណនេយ្យធនាគារអេស៊ីលីដា 34462046567816 (NGIN CHHORB)</t>
+  </si>
+  <si>
+    <t>៣ លេខគណនេយ្យធនាគារឥណ្ឌូឆៃណា​ 1010008000066667 (NGIN CHHORB)</t>
+  </si>
+  <si>
+    <t>៤​ ថ្លៃចំណាយសេវាផ្ទេរប្រាក់តាម Wing ឬ Acleda Unity  ជាបន្ទុករបសើអតិថិជន</t>
+  </si>
+  <si>
+    <t>៥ ករណីប៉ះថ្ងៃសំរាកតរូវលើកទៅថ្ងៃបន្ទាប់</t>
+  </si>
+  <si>
+    <t>៦ ករណីមានការបង់យឺតជាងថ្ងៃកំណត់ត្រូវអនុវត្តន៏តាមកិច្ចសន្យាដែលបានព្រៀងទុក</t>
+  </si>
+  <si>
+    <t>៧ មានបញ្ហាអាចទំនាក់ទំនងតាមរយៈលេខទូរស័ព្ទ</t>
+  </si>
+  <si>
+    <t>085 ​999​ 999</t>
+  </si>
+  <si>
+    <t>ម្ចាស់គម្រោង</t>
+  </si>
+  <si>
+    <t>011 978 178</t>
+  </si>
+  <si>
+    <t>គណនេយ្យ</t>
+  </si>
+  <si>
+    <t>093 ​863 393</t>
   </si>
 </sst>
 </file>
@@ -189,14 +214,17 @@
       <name val="Khmer OS Muol Light"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
       <name val="Khmer OS"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -258,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -290,10 +318,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -303,7 +327,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -318,14 +342,44 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -387,7 +441,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -422,7 +476,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -631,10 +685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:F14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -649,121 +703,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
+      <c r="A1" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
     </row>
     <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
+      <c r="A2" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
     </row>
     <row r="3" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
+      <c r="A3" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
     </row>
     <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="14"/>
+    </row>
+    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="21" t="s">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="14"/>
+    </row>
+    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="21"/>
-    </row>
-    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21" t="s">
+      <c r="E7" s="14"/>
+      <c r="F7" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="21"/>
-    </row>
-    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="18"/>
+      <c r="F8" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="14"/>
+    </row>
+    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="21"/>
-    </row>
-    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="21"/>
-    </row>
-    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
@@ -793,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="8">
         <v>0</v>
@@ -817,7 +871,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="8">
         <v>0</v>
@@ -837,92 +891,188 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="15" t="s">
+      <c r="A13" s="11"/>
+      <c r="B13" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="11">
         <f>SUM(C11:C12)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="12">
         <f>SUM(D11:D12)</f>
         <v>10000000</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="12">
         <f>SUM(E11:E12)</f>
         <v>2000</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="12">
         <f>D13+E13</f>
         <v>10002000</v>
       </c>
-      <c r="G13" s="14"/>
-    </row>
-    <row r="14" spans="1:7" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+      <c r="G13" s="12"/>
+    </row>
+    <row r="14" spans="1:7" s="23" customFormat="1" ht="22.5" x14ac:dyDescent="0.75">
+      <c r="A14" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="11"/>
-    </row>
-    <row r="15" spans="1:7" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+    </row>
+    <row r="15" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A15" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="11"/>
-    </row>
-    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="6" t="s">
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+    </row>
+    <row r="16" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+    </row>
+    <row r="17" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+    </row>
+    <row r="18" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+    </row>
+    <row r="19" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+    </row>
+    <row r="20" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A20" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+    </row>
+    <row r="21" spans="1:7" s="28" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="27"/>
+    </row>
+    <row r="22" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" s="29"/>
+    </row>
+    <row r="23" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="29"/>
+    </row>
+    <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F24" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="5"/>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-      <c r="F18" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>26</v>
+    <row r="25" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="5"/>
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="2"/>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A15:F15"/>
+  <mergeCells count="26">
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A4:G4"/>
@@ -937,6 +1087,10 @@
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="F7:G7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:G9"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0" bottom="0" header="0" footer="0"/>
